--- a/reading/Instacart показатели.xlsx
+++ b/reading/Instacart показатели.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t>products</t>
   </si>
@@ -217,9 +217,6 @@
     <t>reordered</t>
   </si>
   <si>
-    <t>Индикатор повторного заказа</t>
-  </si>
-  <si>
     <t>up</t>
   </si>
   <si>
@@ -241,18 +238,6 @@
     <t>day count</t>
   </si>
   <si>
-    <t>Aisle and Department Features: similar to product features</t>
-  </si>
-  <si>
-    <t>user product interaction:#purchases, #reorders, #day since last purchase, #order since last purchase etc.</t>
-  </si>
-  <si>
-    <t>User aisle and department interaction: similar to product interaction</t>
-  </si>
-  <si>
-    <t>User time interaction: user preferred day of week, user preferred time of day, similar features for products and aisles</t>
-  </si>
-  <si>
     <t>user_std_days_since_prior</t>
   </si>
   <si>
@@ -377,13 +362,28 @@
   </si>
   <si>
     <t>dep_preferred_hod</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -396,11 +396,6 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -420,12 +415,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -464,8 +453,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -473,35 +468,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -884,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,87 +911,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
     </row>
@@ -989,580 +1000,597 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="D28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>63</v>
+      <c r="E45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="39" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="39" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1594,33 +1622,33 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1675,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
@@ -1664,7 +1692,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
@@ -1675,7 +1703,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
@@ -1689,7 +1717,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
